--- a/stakeholders.xlsx
+++ b/stakeholders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdiaz\Dropbox\Research\Data &amp; Analysis\Nuclear Waste\STMCE-SNF\STMCE-SNF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdiaz\Dropbox\Research\Papers\2020-10 STMCE - Paper 2 (STOTEN)\05-revision\analysis\STMCE-SNF-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B359A7-7458-4BF7-AA87-EF5634103327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1785C312-22DC-4B37-852E-DF1666FAF666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholders" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Stakeholders</t>
   </si>
@@ -45,70 +45,37 @@
     <t>y</t>
   </si>
   <si>
-    <t>Southern California Edison (SCE)</t>
-  </si>
-  <si>
-    <t>San Diego Gas &amp; Electric (SDG&amp;E)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City of Riverside </t>
-  </si>
-  <si>
-    <t>San Diego County’s District 5 Supervisor Jim Desmond (R)</t>
-  </si>
-  <si>
-    <t>49th California's Congressional District Representative Mike Levin (D)</t>
-  </si>
-  <si>
-    <t>San Luis Rey Band of Missions Indians (native populations)</t>
-  </si>
-  <si>
-    <t>Committee to Bridge the Gap</t>
-  </si>
-  <si>
-    <t>Surfrider Foundation’s local chapter</t>
-  </si>
-  <si>
-    <t>California State Governor Gavin Newsom (D)</t>
-  </si>
-  <si>
-    <t>California State Senator Dianne Feinstein (D)</t>
-  </si>
-  <si>
-    <t>California State Parks (CSP)</t>
-  </si>
-  <si>
-    <t>California State Land Commission (CSLC)</t>
-  </si>
-  <si>
-    <t>California State Coastal Commission (CSCC)</t>
-  </si>
-  <si>
-    <t>Holtec International</t>
-  </si>
-  <si>
     <t>Stakeholder Abbreviation</t>
   </si>
   <si>
     <t>Stakeholder</t>
   </si>
   <si>
-    <t>SCE’s Community Engagement Panel (CEP)</t>
-  </si>
-  <si>
-    <t>Sierra Club’s Angeles Chapter</t>
-  </si>
-  <si>
-    <t>Citizens Oversight</t>
-  </si>
-  <si>
-    <t>Public Watchdogs</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy (DOE)</t>
-  </si>
-  <si>
-    <t>U.S. Department of the Navy, Marine Corps Base Camp Pendleton (DoN)</t>
+    <t>Current owner of spent fuel (donor)</t>
+  </si>
+  <si>
+    <t>Technology provider (storage systems)</t>
+  </si>
+  <si>
+    <t>Federal spent fuel management organization (receiver)</t>
+  </si>
+  <si>
+    <t>Local communities (donor)</t>
+  </si>
+  <si>
+    <t>Local representatives (donor)</t>
+  </si>
+  <si>
+    <t>State representatives (donor)</t>
+  </si>
+  <si>
+    <t>Local communities (receiver)</t>
+  </si>
+  <si>
+    <t>Local representatives (receiver)</t>
+  </si>
+  <si>
+    <t>State representatives (receiver)</t>
   </si>
 </sst>
 </file>
@@ -483,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41EC2E9-C824-478C-AD81-A54510565023}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,10 +471,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -526,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -541,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -556,13 +523,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -584,13 +551,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,13 +565,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -626,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>55.000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,167 +607,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-      <c r="D16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>70</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>70</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>80</v>
-      </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
